--- a/ButtonTiffNum.xlsx
+++ b/ButtonTiffNum.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CathyZhang0730/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C4B8E-057A-5A4D-AC86-033A8C97B024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A3F98-BF9F-D146-8F3D-5F1D6B3E94D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{72E8FEB0-7D72-E84F-986A-DAFCAE33590A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16860" xr2:uid="{72E8FEB0-7D72-E84F-986A-DAFCAE33590A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
+  <si>
+    <t>Shade</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
   <si>
     <t>Landuse</t>
   </si>
@@ -47,13 +53,16 @@
     <t>Elevation</t>
   </si>
   <si>
-    <t>Button Num</t>
+    <t>AugTemp5am81</t>
   </si>
   <si>
-    <t>Shade</t>
+    <t>AugTemp2pm81</t>
   </si>
   <si>
-    <t>Ground</t>
+    <t>AugTemp5am82</t>
+  </si>
+  <si>
+    <t>AugTemp2pm82</t>
   </si>
   <si>
     <t>fullshade</t>
@@ -77,16 +86,19 @@
     <t>null</t>
   </si>
   <si>
-    <t>AugTemp5am81</t>
+    <t>BufferAlbedo100m</t>
   </si>
   <si>
-    <t>AugTemp2pm81</t>
+    <t>BufferCanopy100m</t>
   </si>
   <si>
-    <t>AugTemp5am82</t>
+    <t>BufferLanduse100m</t>
   </si>
   <si>
-    <t>AugTemp2pm82</t>
+    <t>BufferElevation100m</t>
+  </si>
+  <si>
+    <t>ButtonNum</t>
   </si>
 </sst>
 </file>
@@ -109,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +131,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,18 +171,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,146 +508,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0214EF40-2C0A-D444-9925-17C3BB60C854}">
-  <dimension ref="A1:BO66"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="6">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6">
-        <v>23.5</v>
-      </c>
-      <c r="J2" s="6">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6">
-        <v>28.5</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -650,19 +646,20 @@
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -676,22 +673,30 @@
       <c r="G3">
         <v>28.889999</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
+        <v>3.8914879999999998</v>
+      </c>
+      <c r="I3" s="6">
+        <v>9.7129999999999994E-2</v>
+      </c>
+      <c r="J3">
+        <v>10.392092</v>
+      </c>
+      <c r="K3">
+        <v>29.070789000000001</v>
+      </c>
+      <c r="L3" s="3">
         <v>21.5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="M3" s="3">
         <v>27.5</v>
       </c>
-      <c r="J3" s="3">
+      <c r="N3" s="3">
         <v>22</v>
       </c>
-      <c r="K3" s="3">
+      <c r="O3" s="3">
         <v>31</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -741,19 +746,20 @@
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -767,22 +773,30 @@
       <c r="G4">
         <v>67.010000000000005</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
+        <v>4.4492139999999996</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.109033</v>
+      </c>
+      <c r="J4">
+        <v>15.214903</v>
+      </c>
+      <c r="K4">
+        <v>67.693222000000006</v>
+      </c>
+      <c r="L4" s="3">
         <v>21.5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="M4" s="3">
         <v>26.5</v>
       </c>
-      <c r="J4" s="3">
+      <c r="N4" s="3">
         <v>22</v>
       </c>
-      <c r="K4" s="3">
+      <c r="O4" s="3">
         <v>30.5</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -832,19 +846,20 @@
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -858,22 +873,30 @@
       <c r="G5">
         <v>29.17</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
+        <v>2.6992229999999999</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.12589800000000001</v>
+      </c>
+      <c r="J5">
+        <v>17.600922000000001</v>
+      </c>
+      <c r="K5">
+        <v>29.533221999999999</v>
+      </c>
+      <c r="L5" s="3">
         <v>22.5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="M5" s="3">
         <v>29.5</v>
       </c>
-      <c r="J5" s="3">
+      <c r="N5" s="3">
         <v>23.5</v>
       </c>
-      <c r="K5" s="3">
+      <c r="O5" s="3">
         <v>34.5</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -923,19 +946,20 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -949,22 +973,30 @@
       <c r="G6">
         <v>25.43</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
+        <v>2.2244030000000001</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.105139</v>
+      </c>
+      <c r="J6">
+        <v>7.219411</v>
+      </c>
+      <c r="K6">
+        <v>25.121492</v>
+      </c>
+      <c r="L6" s="3">
         <v>22.5</v>
       </c>
-      <c r="I6" s="3">
+      <c r="M6" s="3">
         <v>30.5</v>
       </c>
-      <c r="J6" s="3">
+      <c r="N6" s="3">
         <v>23.5</v>
       </c>
-      <c r="K6" s="3">
+      <c r="O6" s="3">
         <v>33</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1014,19 +1046,20 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
-      <c r="BM6" s="4"/>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1040,22 +1073,30 @@
       <c r="G7">
         <v>31.24</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
+        <v>3.9335100000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.13108600000000001</v>
+      </c>
+      <c r="J7">
+        <v>12.390247</v>
+      </c>
+      <c r="K7">
+        <v>32.149143000000002</v>
+      </c>
+      <c r="L7" s="3">
         <v>22.5</v>
       </c>
-      <c r="I7" s="3">
+      <c r="M7" s="3">
         <v>28</v>
       </c>
-      <c r="J7" s="3">
+      <c r="N7" s="3">
         <v>23</v>
       </c>
-      <c r="K7" s="3">
+      <c r="O7" s="3">
         <v>34</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1105,19 +1146,20 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="4"/>
-      <c r="BO7" s="4"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1131,22 +1173,30 @@
       <c r="G8">
         <v>38.330002</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
+        <v>2.9050150000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.10909000000000001</v>
+      </c>
+      <c r="J8">
+        <v>9.2657190000000007</v>
+      </c>
+      <c r="K8">
+        <v>39.878990000000002</v>
+      </c>
+      <c r="L8" s="3">
         <v>21.5</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>29.5</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>22.5</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>33</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1196,19 +1246,20 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
-      <c r="BO8" s="4"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -1222,22 +1273,30 @@
       <c r="G9">
         <v>46.47</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
+        <v>8.5801890000000007</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7.7809000000000003E-2</v>
+      </c>
+      <c r="J9">
+        <v>69.335921999999997</v>
+      </c>
+      <c r="K9">
+        <v>51.846694999999997</v>
+      </c>
+      <c r="L9" s="3">
         <v>21.5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>25.5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>21.5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>28.5</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1287,19 +1346,20 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
-      <c r="BO9" s="4"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1313,22 +1373,30 @@
       <c r="G10">
         <v>19.780000999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
+        <v>1.8354889999999999</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.135406</v>
+      </c>
+      <c r="J10">
+        <v>0.64336000000000004</v>
+      </c>
+      <c r="K10">
+        <v>20.145921999999999</v>
+      </c>
+      <c r="L10" s="3">
         <v>22.5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>29</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>24</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>33</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1378,19 +1446,20 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="4"/>
-      <c r="BO10" s="4"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1404,22 +1473,30 @@
       <c r="G11">
         <v>36.81</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
+        <v>2.2609330000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.13095999999999999</v>
+      </c>
+      <c r="J11">
+        <v>4.5347439999999999</v>
+      </c>
+      <c r="K11">
+        <v>36.277985000000001</v>
+      </c>
+      <c r="L11" s="3">
         <v>22.5</v>
       </c>
-      <c r="I11" s="3">
+      <c r="M11" s="3">
         <v>28</v>
       </c>
-      <c r="J11" s="3">
+      <c r="N11" s="3">
         <v>23.5</v>
       </c>
-      <c r="K11" s="3">
+      <c r="O11" s="3">
         <v>32.5</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1469,19 +1546,20 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
-      <c r="BO11" s="4"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1495,22 +1573,30 @@
       <c r="G12">
         <v>28.84</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
+        <v>2.4276469999999999</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.13167999999999999</v>
+      </c>
+      <c r="J12">
+        <v>9.8936530000000005</v>
+      </c>
+      <c r="K12">
+        <v>29.108326000000002</v>
+      </c>
+      <c r="L12" s="3">
         <v>22</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>30.5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <v>22.5</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>35.5</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1560,19 +1646,20 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
-      <c r="BM12" s="4"/>
-      <c r="BN12" s="4"/>
-      <c r="BO12" s="4"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1586,22 +1673,30 @@
       <c r="G13">
         <v>24.68</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
+        <v>3.467311</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.10618</v>
+      </c>
+      <c r="J13">
+        <v>20.678415000000001</v>
+      </c>
+      <c r="K13">
+        <v>24.589113000000001</v>
+      </c>
+      <c r="L13" s="3">
         <v>21.5</v>
       </c>
-      <c r="I13" s="3">
+      <c r="M13" s="3">
         <v>27</v>
       </c>
-      <c r="J13" s="3">
+      <c r="N13" s="3">
         <v>22.5</v>
       </c>
-      <c r="K13" s="3">
+      <c r="O13" s="3">
         <v>31</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1651,19 +1746,20 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
-      <c r="BM13" s="4"/>
-      <c r="BN13" s="4"/>
-      <c r="BO13" s="4"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1677,22 +1773,30 @@
       <c r="G14">
         <v>50.27</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
+        <v>4.5436439999999996</v>
+      </c>
+      <c r="I14" s="6">
+        <v>9.4767000000000004E-2</v>
+      </c>
+      <c r="J14">
+        <v>24.760168</v>
+      </c>
+      <c r="K14">
+        <v>50.686531000000002</v>
+      </c>
+      <c r="L14" s="3">
         <v>21.5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>26</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>22</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>31</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1742,19 +1846,20 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
-      <c r="BM14" s="4"/>
-      <c r="BN14" s="4"/>
-      <c r="BO14" s="4"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1768,22 +1873,30 @@
       <c r="G15">
         <v>79.930000000000007</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
+        <v>7.502948</v>
+      </c>
+      <c r="I15" s="6">
+        <v>7.1429000000000006E-2</v>
+      </c>
+      <c r="J15">
+        <v>71.381209999999996</v>
+      </c>
+      <c r="K15">
+        <v>82.157234000000003</v>
+      </c>
+      <c r="L15" s="3">
         <v>21</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>25</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>21</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>29.5</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1833,19 +1946,20 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="4"/>
-      <c r="BO15" s="4"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -1859,22 +1973,30 @@
       <c r="G16">
         <v>106.76</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
+        <v>8.9809409999999996</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7.1996000000000004E-2</v>
+      </c>
+      <c r="J16">
+        <v>62.812286</v>
+      </c>
+      <c r="K16">
+        <v>105.09335299999999</v>
+      </c>
+      <c r="L16" s="3">
         <v>21</v>
       </c>
-      <c r="I16" s="3">
+      <c r="M16" s="3">
         <v>23.5</v>
       </c>
-      <c r="J16" s="3">
+      <c r="N16" s="3">
         <v>21</v>
       </c>
-      <c r="K16" s="3">
+      <c r="O16" s="3">
         <v>29</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1924,19 +2046,20 @@
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
-      <c r="BM16" s="4"/>
-      <c r="BN16" s="4"/>
-      <c r="BO16" s="4"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1950,22 +2073,30 @@
       <c r="G17">
         <v>3.15</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
+        <v>3.14446</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.12894</v>
+      </c>
+      <c r="J17">
+        <v>7.3628439999999999</v>
+      </c>
+      <c r="K17">
+        <v>2.8752759999999999</v>
+      </c>
+      <c r="L17" s="3">
         <v>22.5</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>28</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>23</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>33</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2015,19 +2146,20 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -2041,22 +2173,30 @@
       <c r="G18">
         <v>32.509998000000003</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
+        <v>8.437284</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9.5043000000000002E-2</v>
+      </c>
+      <c r="J18">
+        <v>20.893066000000001</v>
+      </c>
+      <c r="K18">
+        <v>30.737528000000001</v>
+      </c>
+      <c r="L18" s="3">
         <v>21.5</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>26.5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>22</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>31</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2106,19 +2246,20 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
-      <c r="BO18" s="4"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2132,22 +2273,30 @@
       <c r="G19">
         <v>116.889999</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
+        <v>7.471565</v>
+      </c>
+      <c r="I19" s="6">
+        <v>6.5521999999999997E-2</v>
+      </c>
+      <c r="J19">
+        <v>70.019440000000003</v>
+      </c>
+      <c r="K19">
+        <v>119.37769299999999</v>
+      </c>
+      <c r="L19" s="3">
         <v>20.5</v>
       </c>
-      <c r="I19" s="3">
+      <c r="M19" s="3">
         <v>24.5</v>
       </c>
-      <c r="J19" s="3">
+      <c r="N19" s="3">
         <v>21</v>
       </c>
-      <c r="K19" s="3">
+      <c r="O19" s="3">
         <v>29</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -2197,19 +2346,20 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2223,22 +2373,30 @@
       <c r="G20">
         <v>32.189999</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
+        <v>2.4593470000000002</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.107028</v>
+      </c>
+      <c r="J20">
+        <v>4.0323190000000002</v>
+      </c>
+      <c r="K20">
+        <v>32.056624999999997</v>
+      </c>
+      <c r="L20" s="3">
         <v>23.5</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>30</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>25</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>34.5</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -2288,19 +2446,20 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -2314,22 +2473,30 @@
       <c r="G21">
         <v>47</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
+        <v>5.5019289999999996</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.109154</v>
+      </c>
+      <c r="J21">
+        <v>35.502724000000001</v>
+      </c>
+      <c r="K21">
+        <v>45.551582000000003</v>
+      </c>
+      <c r="L21" s="3">
         <v>21.5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>28.5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>22</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>32.5</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -2379,19 +2546,20 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
-      <c r="BO21" s="4"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2405,22 +2573,30 @@
       <c r="G22">
         <v>42.5</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
+        <v>4.9744770000000003</v>
+      </c>
+      <c r="I22" s="6">
+        <v>8.7731000000000003E-2</v>
+      </c>
+      <c r="J22">
+        <v>23.891632000000001</v>
+      </c>
+      <c r="K22">
+        <v>42.439864999999998</v>
+      </c>
+      <c r="L22" s="3">
         <v>22</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>28.5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>22</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>32.5</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -2470,19 +2646,20 @@
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
-      <c r="BM22" s="4"/>
-      <c r="BN22" s="4"/>
-      <c r="BO22" s="4"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -2496,22 +2673,30 @@
       <c r="G23">
         <v>29.360001</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
+        <v>5.7761199999999997</v>
+      </c>
+      <c r="I23" s="6">
+        <v>9.3885999999999997E-2</v>
+      </c>
+      <c r="J23">
+        <v>41.716721</v>
+      </c>
+      <c r="K23">
+        <v>29.103808999999998</v>
+      </c>
+      <c r="L23" s="3">
         <v>21.5</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>27</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>22.5</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>30</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2561,19 +2746,20 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="4"/>
-      <c r="BO23" s="4"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="3"/>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2587,22 +2773,30 @@
       <c r="G24">
         <v>33.46</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
+        <v>2.324621</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.111273</v>
+      </c>
+      <c r="J24">
+        <v>8.0952529999999996</v>
+      </c>
+      <c r="K24">
+        <v>33.806538000000003</v>
+      </c>
+      <c r="L24" s="3">
         <v>22</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>27</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>23</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>31.5</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2652,19 +2846,20 @@
       <c r="BJ24" s="3"/>
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="4"/>
-      <c r="BO24" s="4"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2678,22 +2873,30 @@
       <c r="G25">
         <v>49.24</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
+        <v>2.8852419999999999</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.114552</v>
+      </c>
+      <c r="J25">
+        <v>6.8988319999999996</v>
+      </c>
+      <c r="K25">
+        <v>50.13353</v>
+      </c>
+      <c r="L25" s="3">
         <v>22.5</v>
       </c>
-      <c r="I25" s="3">
+      <c r="M25" s="3">
         <v>28.5</v>
       </c>
-      <c r="J25" s="3">
+      <c r="N25" s="3">
         <v>23</v>
       </c>
-      <c r="K25" s="3">
+      <c r="O25" s="3">
         <v>33</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -2743,19 +2946,20 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
-      <c r="BM25" s="4"/>
-      <c r="BN25" s="4"/>
-      <c r="BO25" s="4"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2769,22 +2973,30 @@
       <c r="G26">
         <v>27.4</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
+        <v>3.741714</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.103841</v>
+      </c>
+      <c r="J26">
+        <v>9.2398720000000001</v>
+      </c>
+      <c r="K26">
+        <v>28.089227999999999</v>
+      </c>
+      <c r="L26" s="3">
         <v>22.5</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>30</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>23</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>34.5</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -2834,19 +3046,20 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
-      <c r="BM26" s="4"/>
-      <c r="BN26" s="4"/>
-      <c r="BO26" s="4"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>34</v>
       </c>
       <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
         <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2860,22 +3073,30 @@
       <c r="G27">
         <v>42.1</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
+        <v>2.2465099999999998</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.110747</v>
+      </c>
+      <c r="J27">
+        <v>8.9849010000000007</v>
+      </c>
+      <c r="K27">
+        <v>41.144866999999998</v>
+      </c>
+      <c r="L27" s="3">
         <v>21.5</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>29</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>22.5</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>33</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -2925,19 +3146,20 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
-      <c r="BM27" s="4"/>
-      <c r="BN27" s="4"/>
-      <c r="BO27" s="4"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>35</v>
       </c>
       <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
         <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -2951,22 +3173,30 @@
       <c r="G28">
         <v>33.31</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
+        <v>5.6626719999999997</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.10527400000000001</v>
+      </c>
+      <c r="J28">
+        <v>5.6538979999999999</v>
+      </c>
+      <c r="K28">
+        <v>33.004958999999999</v>
+      </c>
+      <c r="L28" s="3">
         <v>21</v>
       </c>
-      <c r="I28" s="3">
+      <c r="M28" s="3">
         <v>28</v>
       </c>
-      <c r="J28" s="3">
+      <c r="N28" s="3">
         <v>21.5</v>
       </c>
-      <c r="K28" s="3">
+      <c r="O28" s="3">
         <v>33</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -3016,19 +3246,20 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
-      <c r="BM28" s="4"/>
-      <c r="BN28" s="4"/>
-      <c r="BO28" s="4"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3042,22 +3273,30 @@
       <c r="G29">
         <v>46.41</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
+        <v>3.2090529999999999</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.11859</v>
+      </c>
+      <c r="J29">
+        <v>6.5101050000000003</v>
+      </c>
+      <c r="K29">
+        <v>46.167617999999997</v>
+      </c>
+      <c r="L29" s="3">
         <v>21.5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="M29" s="3">
         <v>28</v>
       </c>
-      <c r="J29" s="3">
+      <c r="N29" s="3">
         <v>22.5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="O29" s="3">
         <v>32.5</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -3107,19 +3346,20 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
-      <c r="BM29" s="4"/>
-      <c r="BN29" s="4"/>
-      <c r="BO29" s="4"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="3"/>
+      <c r="BP29" s="3"/>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3133,22 +3373,27 @@
       <c r="G30">
         <v>42.7</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
+        <v>3.504734</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.13910400000000001</v>
+      </c>
+      <c r="J30">
+        <v>7.9991289999999999</v>
+      </c>
+      <c r="L30" s="3">
         <v>22</v>
       </c>
-      <c r="I30" s="3">
+      <c r="M30" s="3">
         <v>30</v>
       </c>
-      <c r="J30" s="3">
+      <c r="N30" s="3">
         <v>23</v>
       </c>
-      <c r="K30" s="3">
+      <c r="O30" s="3">
         <v>35.5</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -3198,19 +3443,20 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
-      <c r="BM30" s="4"/>
-      <c r="BN30" s="4"/>
-      <c r="BO30" s="4"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="3"/>
+      <c r="BP30" s="3"/>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3224,22 +3470,30 @@
       <c r="G31">
         <v>42.46</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
+        <v>4.3288609999999998</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.116257</v>
+      </c>
+      <c r="J31">
+        <v>13.905656</v>
+      </c>
+      <c r="K31">
+        <v>42.874580000000002</v>
+      </c>
+      <c r="L31" s="3">
         <v>22</v>
       </c>
-      <c r="I31" s="3">
+      <c r="M31" s="3">
         <v>29</v>
       </c>
-      <c r="J31" s="3">
+      <c r="N31" s="3">
         <v>22.5</v>
       </c>
-      <c r="K31" s="3">
+      <c r="O31" s="3">
         <v>32.5</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3289,19 +3543,20 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
-      <c r="BM31" s="4"/>
-      <c r="BN31" s="4"/>
-      <c r="BO31" s="4"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3315,22 +3570,30 @@
       <c r="G32">
         <v>43.87</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
+        <v>2.7628180000000002</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.113611</v>
+      </c>
+      <c r="J32">
+        <v>19.264645000000002</v>
+      </c>
+      <c r="K32">
+        <v>44.162308000000003</v>
+      </c>
+      <c r="L32" s="3">
         <v>21.5</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>27.5</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>22.5</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>32.5</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3380,40 +3643,41 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
-      <c r="BM32" s="4"/>
-      <c r="BN32" s="4"/>
-      <c r="BO32" s="4"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="3"/>
+      <c r="BO32" s="3"/>
+      <c r="BP32" s="3"/>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="6">
+      <c r="H33" s="2"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="4">
         <v>21</v>
       </c>
-      <c r="I33" s="6">
+      <c r="M33" s="4">
         <v>27</v>
       </c>
-      <c r="J33" s="6">
+      <c r="N33" s="4">
         <v>20.5</v>
       </c>
-      <c r="K33" s="6">
+      <c r="O33" s="4">
         <v>31</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -3463,19 +3727,20 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
-      <c r="BM33" s="4"/>
-      <c r="BN33" s="4"/>
-      <c r="BO33" s="4"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
+      <c r="BO33" s="3"/>
+      <c r="BP33" s="3"/>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>41</v>
       </c>
       <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
         <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3489,22 +3754,30 @@
       <c r="G34">
         <v>41.67</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34">
+        <v>1.971462</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.11866</v>
+      </c>
+      <c r="J34">
+        <v>10.071584</v>
+      </c>
+      <c r="K34">
+        <v>38.720599999999997</v>
+      </c>
+      <c r="L34" s="3">
         <v>22</v>
       </c>
-      <c r="I34" s="3">
+      <c r="M34" s="3">
         <v>29</v>
       </c>
-      <c r="J34" s="3">
+      <c r="N34" s="3">
         <v>22.5</v>
       </c>
-      <c r="K34" s="3">
+      <c r="O34" s="3">
         <v>32.5</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -3554,19 +3827,20 @@
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
-      <c r="BM34" s="4"/>
-      <c r="BN34" s="4"/>
-      <c r="BO34" s="4"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="3"/>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3580,22 +3854,30 @@
       <c r="G35">
         <v>48.98</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35">
+        <v>2.4720650000000002</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.12457</v>
+      </c>
+      <c r="J35">
+        <v>9.7240719999999996</v>
+      </c>
+      <c r="K35">
+        <v>48.659247999999998</v>
+      </c>
+      <c r="L35" s="3">
         <v>22</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>32</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>22.5</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>35</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -3645,19 +3927,20 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
-      <c r="BM35" s="4"/>
-      <c r="BN35" s="4"/>
-      <c r="BO35" s="4"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3"/>
     </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>45</v>
       </c>
       <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3671,22 +3954,30 @@
       <c r="G36">
         <v>41.9</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
+        <v>2.195881</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.12745600000000001</v>
+      </c>
+      <c r="J36">
+        <v>9.641686</v>
+      </c>
+      <c r="K36">
+        <v>42.995232000000001</v>
+      </c>
+      <c r="L36" s="3">
         <v>21.5</v>
       </c>
-      <c r="I36" s="3">
+      <c r="M36" s="3">
         <v>30.5</v>
       </c>
-      <c r="J36" s="3">
+      <c r="N36" s="3">
         <v>22.5</v>
       </c>
-      <c r="K36" s="3">
+      <c r="O36" s="3">
         <v>34.5</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -3736,19 +4027,20 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
       <c r="BL36" s="3"/>
-      <c r="BM36" s="4"/>
-      <c r="BN36" s="4"/>
-      <c r="BO36" s="4"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3762,22 +4054,30 @@
       <c r="G37">
         <v>39.72</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37">
+        <v>2.6269279999999999</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.119064</v>
+      </c>
+      <c r="J37">
+        <v>12.720001999999999</v>
+      </c>
+      <c r="K37">
+        <v>40.789386999999998</v>
+      </c>
+      <c r="L37" s="3">
         <v>21.5</v>
       </c>
-      <c r="I37" s="3">
+      <c r="M37" s="3">
         <v>28.5</v>
       </c>
-      <c r="J37" s="3">
+      <c r="N37" s="3">
         <v>23</v>
       </c>
-      <c r="K37" s="3">
+      <c r="O37" s="3">
         <v>33.5</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -3827,19 +4127,20 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="3"/>
       <c r="BL37" s="3"/>
-      <c r="BM37" s="4"/>
-      <c r="BN37" s="4"/>
-      <c r="BO37" s="4"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="3"/>
     </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -3853,22 +4154,30 @@
       <c r="G38">
         <v>40.099980000000002</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
+        <v>3.7123680000000001</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.108152</v>
+      </c>
+      <c r="J38">
+        <v>12.139728</v>
+      </c>
+      <c r="K38">
+        <v>39.659869999999998</v>
+      </c>
+      <c r="L38" s="3">
         <v>22</v>
       </c>
-      <c r="I38" s="3">
+      <c r="M38" s="3">
         <v>30</v>
       </c>
-      <c r="J38" s="3">
+      <c r="N38" s="3">
         <v>23</v>
       </c>
-      <c r="K38" s="3">
+      <c r="O38" s="3">
         <v>34</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -3918,19 +4227,20 @@
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
-      <c r="BM38" s="4"/>
-      <c r="BN38" s="4"/>
-      <c r="BO38" s="4"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
+      <c r="BO38" s="3"/>
+      <c r="BP38" s="3"/>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3944,22 +4254,30 @@
       <c r="G39">
         <v>42.27</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39">
+        <v>2.3295620000000001</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.119185</v>
+      </c>
+      <c r="J39">
+        <v>11.421472</v>
+      </c>
+      <c r="K39">
+        <v>42.906750000000002</v>
+      </c>
+      <c r="L39" s="3">
         <v>21.5</v>
       </c>
-      <c r="I39" s="3">
+      <c r="M39" s="3">
         <v>28</v>
       </c>
-      <c r="J39" s="3">
+      <c r="N39" s="3">
         <v>22.5</v>
       </c>
-      <c r="K39" s="3">
+      <c r="O39" s="3">
         <v>32</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4009,19 +4327,20 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
       <c r="BL39" s="3"/>
-      <c r="BM39" s="4"/>
-      <c r="BN39" s="4"/>
-      <c r="BO39" s="4"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
+      <c r="BO39" s="3"/>
+      <c r="BP39" s="3"/>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4035,22 +4354,30 @@
       <c r="G40">
         <v>49.97</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40">
+        <v>2.3323239999999998</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.122062</v>
+      </c>
+      <c r="J40">
+        <v>9.2407009999999996</v>
+      </c>
+      <c r="K40">
+        <v>49.204624000000003</v>
+      </c>
+      <c r="L40" s="3">
         <v>22</v>
       </c>
-      <c r="I40" s="3">
+      <c r="M40" s="3">
         <v>29</v>
       </c>
-      <c r="J40" s="3">
+      <c r="N40" s="3">
         <v>22.5</v>
       </c>
-      <c r="K40" s="3">
+      <c r="O40" s="3">
         <v>33.5</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -4100,19 +4427,20 @@
       <c r="BJ40" s="3"/>
       <c r="BK40" s="3"/>
       <c r="BL40" s="3"/>
-      <c r="BM40" s="4"/>
-      <c r="BN40" s="4"/>
-      <c r="BO40" s="4"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4126,22 +4454,30 @@
       <c r="G41">
         <v>37.22</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41">
+        <v>1.996462</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.12288499999999999</v>
+      </c>
+      <c r="J41">
+        <v>5.6017469999999996</v>
+      </c>
+      <c r="K41">
+        <v>37.403244000000001</v>
+      </c>
+      <c r="L41" s="3">
         <v>22</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>29.5</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>22.5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>34</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -4191,19 +4527,20 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
-      <c r="BM41" s="4"/>
-      <c r="BN41" s="4"/>
-      <c r="BO41" s="4"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>11</v>
@@ -4217,22 +4554,30 @@
       <c r="G42">
         <v>39.159999999999997</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42">
+        <v>4.2557099999999997</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.12956500000000001</v>
+      </c>
+      <c r="J42">
+        <v>13.891933</v>
+      </c>
+      <c r="K42">
+        <v>39.310940000000002</v>
+      </c>
+      <c r="L42" s="3">
         <v>21.5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>28</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>22</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>32</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -4282,19 +4627,20 @@
       <c r="BJ42" s="3"/>
       <c r="BK42" s="3"/>
       <c r="BL42" s="3"/>
-      <c r="BM42" s="4"/>
-      <c r="BN42" s="4"/>
-      <c r="BO42" s="4"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4308,22 +4654,30 @@
       <c r="G43">
         <v>42.94</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43">
+        <v>2.3446609999999999</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.116867</v>
+      </c>
+      <c r="J43">
+        <v>7.8313389999999998</v>
+      </c>
+      <c r="K43">
+        <v>42.312862000000003</v>
+      </c>
+      <c r="L43" s="3">
         <v>21.5</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>27.5</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>22.5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>31.5</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -4373,19 +4727,20 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="3"/>
       <c r="BL43" s="3"/>
-      <c r="BM43" s="4"/>
-      <c r="BN43" s="4"/>
-      <c r="BO43" s="4"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
+      <c r="BO43" s="3"/>
+      <c r="BP43" s="3"/>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>57</v>
       </c>
       <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
         <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -4399,22 +4754,30 @@
       <c r="G44">
         <v>37.450000000000003</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44">
+        <v>2.0215139999999998</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.124472</v>
+      </c>
+      <c r="J44">
+        <v>4.6753130000000001</v>
+      </c>
+      <c r="K44">
+        <v>36.504016999999997</v>
+      </c>
+      <c r="L44" s="3">
         <v>22</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>28.5</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>23</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>32.5</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -4464,19 +4827,20 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
       <c r="BL44" s="3"/>
-      <c r="BM44" s="4"/>
-      <c r="BN44" s="4"/>
-      <c r="BO44" s="4"/>
+      <c r="BM44" s="3"/>
+      <c r="BN44" s="3"/>
+      <c r="BO44" s="3"/>
+      <c r="BP44" s="3"/>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4490,22 +4854,30 @@
       <c r="G45">
         <v>40.85</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45">
+        <v>2.2682730000000002</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.111315</v>
+      </c>
+      <c r="J45">
+        <v>11.209652</v>
+      </c>
+      <c r="K45">
+        <v>40.432194000000003</v>
+      </c>
+      <c r="L45" s="3">
         <v>22</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>28.5</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>22.5</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>33</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -4555,19 +4927,20 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="3"/>
       <c r="BL45" s="3"/>
-      <c r="BM45" s="4"/>
-      <c r="BN45" s="4"/>
-      <c r="BO45" s="4"/>
+      <c r="BM45" s="3"/>
+      <c r="BN45" s="3"/>
+      <c r="BO45" s="3"/>
+      <c r="BP45" s="3"/>
     </row>
-    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>15</v>
@@ -4581,22 +4954,30 @@
       <c r="G46">
         <v>33.200000000000003</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46">
+        <v>3.4281799999999998</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.131775</v>
+      </c>
+      <c r="J46">
+        <v>3.5411329999999999</v>
+      </c>
+      <c r="K46">
+        <v>34.114593999999997</v>
+      </c>
+      <c r="L46" s="3">
         <v>21.5</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>26.5</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>22.5</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>32</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -4646,19 +5027,20 @@
       <c r="BJ46" s="3"/>
       <c r="BK46" s="3"/>
       <c r="BL46" s="3"/>
-      <c r="BM46" s="4"/>
-      <c r="BN46" s="4"/>
-      <c r="BO46" s="4"/>
+      <c r="BM46" s="3"/>
+      <c r="BN46" s="3"/>
+      <c r="BO46" s="3"/>
+      <c r="BP46" s="3"/>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4672,22 +5054,30 @@
       <c r="G47">
         <v>37.15</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47">
+        <v>1.9984059999999999</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.123487</v>
+      </c>
+      <c r="J47">
+        <v>5.4660399999999996</v>
+      </c>
+      <c r="K47">
+        <v>37.309372000000003</v>
+      </c>
+      <c r="L47" s="3">
         <v>22</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>28</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>22.5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>32.5</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -4737,19 +5127,20 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="3"/>
       <c r="BL47" s="3"/>
-      <c r="BM47" s="4"/>
-      <c r="BN47" s="4"/>
-      <c r="BO47" s="4"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="3"/>
+      <c r="BP47" s="3"/>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -4763,22 +5154,30 @@
       <c r="G48">
         <v>42.43</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48">
+        <v>4.1075220000000003</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.117688</v>
+      </c>
+      <c r="J48">
+        <v>13.669972</v>
+      </c>
+      <c r="K48">
+        <v>42.611702000000001</v>
+      </c>
+      <c r="L48" s="3">
         <v>21.5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>28</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>22.5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>32</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -4828,19 +5227,20 @@
       <c r="BJ48" s="3"/>
       <c r="BK48" s="3"/>
       <c r="BL48" s="3"/>
-      <c r="BM48" s="4"/>
-      <c r="BN48" s="4"/>
-      <c r="BO48" s="4"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3"/>
+      <c r="BO48" s="3"/>
+      <c r="BP48" s="3"/>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>63</v>
       </c>
       <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
         <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -4854,22 +5254,30 @@
       <c r="G49">
         <v>43.31</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49">
+        <v>2.2044609999999998</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.133495</v>
+      </c>
+      <c r="J49">
+        <v>5.6839570000000004</v>
+      </c>
+      <c r="K49">
+        <v>43.571350000000002</v>
+      </c>
+      <c r="L49" s="3">
         <v>22</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>28.5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>23</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>32</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -4919,19 +5327,20 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="3"/>
       <c r="BL49" s="3"/>
-      <c r="BM49" s="4"/>
-      <c r="BN49" s="4"/>
-      <c r="BO49" s="4"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+      <c r="BO49" s="3"/>
+      <c r="BP49" s="3"/>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -4945,22 +5354,30 @@
       <c r="G50">
         <v>34.049999999999997</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50">
+        <v>3.4321320000000002</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.13278799999999999</v>
+      </c>
+      <c r="J50">
+        <v>4.3298480000000001</v>
+      </c>
+      <c r="K50">
+        <v>33.513142000000002</v>
+      </c>
+      <c r="L50" s="3">
         <v>21.5</v>
       </c>
-      <c r="I50" s="3">
+      <c r="M50" s="3">
         <v>29</v>
       </c>
-      <c r="J50" s="3">
+      <c r="N50" s="3">
         <v>22</v>
       </c>
-      <c r="K50" s="3">
+      <c r="O50" s="3">
         <v>33.5</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -5010,19 +5427,20 @@
       <c r="BJ50" s="3"/>
       <c r="BK50" s="3"/>
       <c r="BL50" s="3"/>
-      <c r="BM50" s="4"/>
-      <c r="BN50" s="4"/>
-      <c r="BO50" s="4"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
+      <c r="BO50" s="3"/>
+      <c r="BP50" s="3"/>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -5036,22 +5454,30 @@
       <c r="G51">
         <v>55.06</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51">
+        <v>6.7007009999999996</v>
+      </c>
+      <c r="I51" s="6">
+        <v>9.3175999999999995E-2</v>
+      </c>
+      <c r="J51">
+        <v>61.678806000000002</v>
+      </c>
+      <c r="K51">
+        <v>53.979832000000002</v>
+      </c>
+      <c r="L51" s="3">
         <v>21</v>
       </c>
-      <c r="I51" s="3">
+      <c r="M51" s="3">
         <v>26</v>
       </c>
-      <c r="J51" s="3">
+      <c r="N51" s="3">
         <v>21.5</v>
       </c>
-      <c r="K51" s="3">
+      <c r="O51" s="3">
         <v>30.5</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -5101,19 +5527,20 @@
       <c r="BJ51" s="3"/>
       <c r="BK51" s="3"/>
       <c r="BL51" s="3"/>
-      <c r="BM51" s="4"/>
-      <c r="BN51" s="4"/>
-      <c r="BO51" s="4"/>
+      <c r="BM51" s="3"/>
+      <c r="BN51" s="3"/>
+      <c r="BO51" s="3"/>
+      <c r="BP51" s="3"/>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -5127,22 +5554,30 @@
       <c r="G52">
         <v>54.33</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52">
+        <v>5.7701960000000003</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.124642</v>
+      </c>
+      <c r="J52">
+        <v>57.917895999999999</v>
+      </c>
+      <c r="K52">
+        <v>46.683242999999997</v>
+      </c>
+      <c r="L52" s="3">
         <v>21</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>29.5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>21.5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>32.5</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -5192,19 +5627,20 @@
       <c r="BJ52" s="3"/>
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
-      <c r="BM52" s="4"/>
-      <c r="BN52" s="4"/>
-      <c r="BO52" s="4"/>
+      <c r="BM52" s="3"/>
+      <c r="BN52" s="3"/>
+      <c r="BO52" s="3"/>
+      <c r="BP52" s="3"/>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -5218,22 +5654,30 @@
       <c r="G53">
         <v>54.88</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53">
+        <v>6.2757009999999998</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.105152</v>
+      </c>
+      <c r="J53">
+        <v>55.273406999999999</v>
+      </c>
+      <c r="K53">
+        <v>52.902962000000002</v>
+      </c>
+      <c r="L53" s="3">
         <v>21.5</v>
       </c>
-      <c r="I53" s="3">
+      <c r="M53" s="3">
         <v>31</v>
       </c>
-      <c r="J53" s="3">
+      <c r="N53" s="3">
         <v>21.5</v>
       </c>
-      <c r="K53" s="3">
+      <c r="O53" s="3">
         <v>34.5</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -5283,19 +5727,20 @@
       <c r="BJ53" s="3"/>
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
-      <c r="BM53" s="4"/>
-      <c r="BN53" s="4"/>
-      <c r="BO53" s="4"/>
+      <c r="BM53" s="3"/>
+      <c r="BN53" s="3"/>
+      <c r="BO53" s="3"/>
+      <c r="BP53" s="3"/>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -5309,22 +5754,30 @@
       <c r="G54">
         <v>53.11</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54">
+        <v>6.2169840000000001</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.105087</v>
+      </c>
+      <c r="J54">
+        <v>57.669449</v>
+      </c>
+      <c r="K54">
+        <v>50.661197999999999</v>
+      </c>
+      <c r="L54" s="3">
         <v>21.5</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>38</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>20.5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>39.5</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -5374,19 +5827,20 @@
       <c r="BJ54" s="3"/>
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
-      <c r="BM54" s="4"/>
-      <c r="BN54" s="4"/>
-      <c r="BO54" s="4"/>
+      <c r="BM54" s="3"/>
+      <c r="BN54" s="3"/>
+      <c r="BO54" s="3"/>
+      <c r="BP54" s="3"/>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -5400,22 +5854,30 @@
       <c r="G55">
         <v>60.189999</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55">
+        <v>7.0022950000000002</v>
+      </c>
+      <c r="I55" s="6">
+        <v>7.6175000000000007E-2</v>
+      </c>
+      <c r="J55">
+        <v>71.939200999999997</v>
+      </c>
+      <c r="K55">
+        <v>59.076466000000003</v>
+      </c>
+      <c r="L55" s="3">
         <v>21</v>
       </c>
-      <c r="I55" s="3">
+      <c r="M55" s="3">
         <v>26.5</v>
       </c>
-      <c r="J55" s="3">
+      <c r="N55" s="3">
         <v>21.5</v>
       </c>
-      <c r="K55" s="3">
+      <c r="O55" s="3">
         <v>30.5</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -5465,574 +5927,10 @@
       <c r="BJ55" s="3"/>
       <c r="BK55" s="3"/>
       <c r="BL55" s="3"/>
-      <c r="BM55" s="4"/>
-      <c r="BN55" s="4"/>
-      <c r="BO55" s="4"/>
-    </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
-      <c r="AI56" s="4"/>
-      <c r="AJ56" s="4"/>
-      <c r="AK56" s="4"/>
-      <c r="AL56" s="4"/>
-      <c r="AM56" s="4"/>
-      <c r="AN56" s="4"/>
-      <c r="AO56" s="4"/>
-      <c r="AP56" s="4"/>
-      <c r="AQ56" s="4"/>
-      <c r="AR56" s="4"/>
-      <c r="AS56" s="4"/>
-      <c r="AT56" s="4"/>
-      <c r="AU56" s="4"/>
-      <c r="AV56" s="4"/>
-      <c r="AW56" s="4"/>
-      <c r="AX56" s="4"/>
-      <c r="AY56" s="4"/>
-      <c r="AZ56" s="4"/>
-      <c r="BA56" s="4"/>
-      <c r="BB56" s="4"/>
-      <c r="BC56" s="4"/>
-      <c r="BD56" s="4"/>
-      <c r="BE56" s="4"/>
-      <c r="BF56" s="4"/>
-      <c r="BG56" s="4"/>
-      <c r="BH56" s="4"/>
-      <c r="BI56" s="4"/>
-      <c r="BJ56" s="4"/>
-      <c r="BK56" s="4"/>
-      <c r="BL56" s="4"/>
-      <c r="BM56" s="4"/>
-      <c r="BN56" s="4"/>
-      <c r="BO56" s="4"/>
-    </row>
-    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="4"/>
-      <c r="AM57" s="4"/>
-      <c r="AN57" s="4"/>
-      <c r="AO57" s="4"/>
-      <c r="AP57" s="4"/>
-      <c r="AQ57" s="4"/>
-      <c r="AR57" s="4"/>
-      <c r="AS57" s="4"/>
-      <c r="AT57" s="4"/>
-      <c r="AU57" s="4"/>
-      <c r="AV57" s="4"/>
-      <c r="AW57" s="4"/>
-      <c r="AX57" s="4"/>
-      <c r="AY57" s="4"/>
-      <c r="AZ57" s="4"/>
-      <c r="BA57" s="4"/>
-      <c r="BB57" s="4"/>
-      <c r="BC57" s="4"/>
-      <c r="BD57" s="4"/>
-      <c r="BE57" s="4"/>
-      <c r="BF57" s="4"/>
-      <c r="BG57" s="4"/>
-      <c r="BH57" s="4"/>
-      <c r="BI57" s="4"/>
-      <c r="BJ57" s="4"/>
-      <c r="BK57" s="4"/>
-      <c r="BL57" s="4"/>
-      <c r="BM57" s="4"/>
-      <c r="BN57" s="4"/>
-      <c r="BO57" s="4"/>
-    </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="4"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="4"/>
-      <c r="AO58" s="4"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
-      <c r="AS58" s="4"/>
-      <c r="AT58" s="4"/>
-      <c r="AU58" s="4"/>
-      <c r="AV58" s="4"/>
-      <c r="AW58" s="4"/>
-      <c r="AX58" s="4"/>
-      <c r="AY58" s="4"/>
-      <c r="AZ58" s="4"/>
-      <c r="BA58" s="4"/>
-      <c r="BB58" s="4"/>
-      <c r="BC58" s="4"/>
-      <c r="BD58" s="4"/>
-      <c r="BE58" s="4"/>
-      <c r="BF58" s="4"/>
-      <c r="BG58" s="4"/>
-      <c r="BH58" s="4"/>
-      <c r="BI58" s="4"/>
-      <c r="BJ58" s="4"/>
-      <c r="BK58" s="4"/>
-      <c r="BL58" s="4"/>
-      <c r="BM58" s="4"/>
-      <c r="BN58" s="4"/>
-      <c r="BO58" s="4"/>
-    </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
-      <c r="AS59" s="4"/>
-      <c r="AT59" s="4"/>
-      <c r="AU59" s="4"/>
-      <c r="AV59" s="4"/>
-      <c r="AW59" s="4"/>
-      <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
-      <c r="AZ59" s="4"/>
-      <c r="BA59" s="4"/>
-      <c r="BB59" s="4"/>
-      <c r="BC59" s="4"/>
-      <c r="BD59" s="4"/>
-      <c r="BE59" s="4"/>
-      <c r="BF59" s="4"/>
-      <c r="BG59" s="4"/>
-      <c r="BH59" s="4"/>
-      <c r="BI59" s="4"/>
-      <c r="BJ59" s="4"/>
-      <c r="BK59" s="4"/>
-      <c r="BL59" s="4"/>
-      <c r="BM59" s="4"/>
-      <c r="BN59" s="4"/>
-      <c r="BO59" s="4"/>
-    </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
-      <c r="AI60" s="4"/>
-      <c r="AJ60" s="4"/>
-      <c r="AK60" s="4"/>
-      <c r="AL60" s="4"/>
-      <c r="AM60" s="4"/>
-      <c r="AN60" s="4"/>
-      <c r="AO60" s="4"/>
-      <c r="AP60" s="4"/>
-      <c r="AQ60" s="4"/>
-      <c r="AR60" s="4"/>
-      <c r="AS60" s="4"/>
-      <c r="AT60" s="4"/>
-      <c r="AU60" s="4"/>
-      <c r="AV60" s="4"/>
-      <c r="AW60" s="4"/>
-      <c r="AX60" s="4"/>
-      <c r="AY60" s="4"/>
-      <c r="AZ60" s="4"/>
-      <c r="BA60" s="4"/>
-      <c r="BB60" s="4"/>
-      <c r="BC60" s="4"/>
-      <c r="BD60" s="4"/>
-      <c r="BE60" s="4"/>
-      <c r="BF60" s="4"/>
-      <c r="BG60" s="4"/>
-      <c r="BH60" s="4"/>
-      <c r="BI60" s="4"/>
-      <c r="BJ60" s="4"/>
-      <c r="BK60" s="4"/>
-      <c r="BL60" s="4"/>
-      <c r="BM60" s="4"/>
-      <c r="BN60" s="4"/>
-      <c r="BO60" s="4"/>
-    </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
-      <c r="AH61" s="4"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="4"/>
-      <c r="AK61" s="4"/>
-      <c r="AL61" s="4"/>
-      <c r="AM61" s="4"/>
-      <c r="AN61" s="4"/>
-      <c r="AO61" s="4"/>
-      <c r="AP61" s="4"/>
-      <c r="AQ61" s="4"/>
-      <c r="AR61" s="4"/>
-      <c r="AS61" s="4"/>
-      <c r="AT61" s="4"/>
-      <c r="AU61" s="4"/>
-      <c r="AV61" s="4"/>
-      <c r="AW61" s="4"/>
-      <c r="AX61" s="4"/>
-      <c r="AY61" s="4"/>
-      <c r="AZ61" s="4"/>
-      <c r="BA61" s="4"/>
-      <c r="BB61" s="4"/>
-      <c r="BC61" s="4"/>
-      <c r="BD61" s="4"/>
-      <c r="BE61" s="4"/>
-      <c r="BF61" s="4"/>
-      <c r="BG61" s="4"/>
-      <c r="BH61" s="4"/>
-      <c r="BI61" s="4"/>
-      <c r="BJ61" s="4"/>
-      <c r="BK61" s="4"/>
-      <c r="BL61" s="4"/>
-      <c r="BM61" s="4"/>
-      <c r="BN61" s="4"/>
-      <c r="BO61" s="4"/>
-    </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-      <c r="AG62" s="4"/>
-      <c r="AH62" s="4"/>
-      <c r="AI62" s="4"/>
-      <c r="AJ62" s="4"/>
-      <c r="AK62" s="4"/>
-      <c r="AL62" s="4"/>
-      <c r="AM62" s="4"/>
-      <c r="AN62" s="4"/>
-      <c r="AO62" s="4"/>
-      <c r="AP62" s="4"/>
-      <c r="AQ62" s="4"/>
-      <c r="AR62" s="4"/>
-      <c r="AS62" s="4"/>
-      <c r="AT62" s="4"/>
-      <c r="AU62" s="4"/>
-      <c r="AV62" s="4"/>
-      <c r="AW62" s="4"/>
-      <c r="AX62" s="4"/>
-      <c r="AY62" s="4"/>
-      <c r="AZ62" s="4"/>
-      <c r="BA62" s="4"/>
-      <c r="BB62" s="4"/>
-      <c r="BC62" s="4"/>
-      <c r="BD62" s="4"/>
-      <c r="BE62" s="4"/>
-      <c r="BF62" s="4"/>
-      <c r="BG62" s="4"/>
-      <c r="BH62" s="4"/>
-      <c r="BI62" s="4"/>
-      <c r="BJ62" s="4"/>
-      <c r="BK62" s="4"/>
-      <c r="BL62" s="4"/>
-      <c r="BM62" s="4"/>
-      <c r="BN62" s="4"/>
-      <c r="BO62" s="4"/>
-    </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="4"/>
-      <c r="AO63" s="4"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
-      <c r="AS63" s="4"/>
-      <c r="AT63" s="4"/>
-      <c r="AU63" s="4"/>
-      <c r="AV63" s="4"/>
-      <c r="AW63" s="4"/>
-      <c r="AX63" s="4"/>
-      <c r="AY63" s="4"/>
-      <c r="AZ63" s="4"/>
-      <c r="BA63" s="4"/>
-      <c r="BB63" s="4"/>
-      <c r="BC63" s="4"/>
-      <c r="BD63" s="4"/>
-      <c r="BE63" s="4"/>
-      <c r="BF63" s="4"/>
-      <c r="BG63" s="4"/>
-      <c r="BH63" s="4"/>
-      <c r="BI63" s="4"/>
-      <c r="BJ63" s="4"/>
-      <c r="BK63" s="4"/>
-      <c r="BL63" s="4"/>
-      <c r="BM63" s="4"/>
-      <c r="BN63" s="4"/>
-      <c r="BO63" s="4"/>
-    </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
-      <c r="AM64" s="4"/>
-      <c r="AN64" s="4"/>
-      <c r="AO64" s="4"/>
-      <c r="AP64" s="4"/>
-      <c r="AQ64" s="4"/>
-      <c r="AR64" s="4"/>
-      <c r="AS64" s="4"/>
-      <c r="AT64" s="4"/>
-      <c r="AU64" s="4"/>
-      <c r="AV64" s="4"/>
-      <c r="AW64" s="4"/>
-      <c r="AX64" s="4"/>
-      <c r="AY64" s="4"/>
-      <c r="AZ64" s="4"/>
-      <c r="BA64" s="4"/>
-      <c r="BB64" s="4"/>
-      <c r="BC64" s="4"/>
-      <c r="BD64" s="4"/>
-      <c r="BE64" s="4"/>
-      <c r="BF64" s="4"/>
-      <c r="BG64" s="4"/>
-      <c r="BH64" s="4"/>
-      <c r="BI64" s="4"/>
-      <c r="BJ64" s="4"/>
-      <c r="BK64" s="4"/>
-      <c r="BL64" s="4"/>
-    </row>
-    <row r="65" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
-    </row>
-    <row r="66" spans="12:34" x14ac:dyDescent="0.2">
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
+      <c r="BM55" s="3"/>
+      <c r="BN55" s="3"/>
+      <c r="BO55" s="3"/>
+      <c r="BP55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
